--- a/entrada.xlsx
+++ b/entrada.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alinsperedu-my.sharepoint.com/personal/matheusk_al_insper_edu_br/Documents/OneDrive/5o Sem/TCMecSol/APS4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alinsperedu-my.sharepoint.com/personal/matheusk_al_insper_edu_br/Documents/OneDrive/5o Sem/TCMecSol/mecsol_pfinal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_B83576887843B5F308FB41B3B0A882DC2AEE8E3C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EFE1FCB-994A-EB44-8C77-FB2290269372}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="11_B83576887843B5F308FB41B3B0A882DC2AEE8E3C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9312D40F-9936-694C-8EA2-CD4A29FBACB9}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="500" windowWidth="23260" windowHeight="12580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="16460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nos" sheetId="1" r:id="rId1"/>
@@ -507,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -540,32 +540,60 @@
       <c r="C2" s="2"/>
       <c r="D2" s="9">
         <f>COUNT(A2:A1048576)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="B3" s="2">
-        <v>0.4</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>0.3</v>
+        <v>192</v>
       </c>
       <c r="B4" s="2">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
+      <c r="A5" s="10">
+        <v>288</v>
+      </c>
+      <c r="B5" s="10">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="10">
+        <v>384</v>
+      </c>
+      <c r="B6" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="10">
+        <v>432</v>
+      </c>
+      <c r="B7" s="10">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="10">
+        <v>576</v>
+      </c>
+      <c r="B8" s="10">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -574,15 +602,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="144" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="7" width="11.6640625" customWidth="1"/>
+    <col min="1" max="4" width="11.6640625" style="1" customWidth="1"/>
+    <col min="5" max="7" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.2">
@@ -611,15 +640,15 @@
         <v>2</v>
       </c>
       <c r="C2" s="3">
-        <v>210000000000</v>
+        <v>200000000000</v>
       </c>
       <c r="D2" s="3">
-        <v>2.0000000000000001E-4</v>
+        <v>5.2499999999999997E-6</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="7">
         <f>COUNT(A2:A1048576)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -630,10 +659,10 @@
         <v>3</v>
       </c>
       <c r="C3" s="3">
-        <v>210000000000</v>
+        <v>200000000000</v>
       </c>
       <c r="D3" s="3">
-        <v>2.0000000000000001E-4</v>
+        <v>5.2499999999999997E-6</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -647,10 +676,122 @@
         <v>1</v>
       </c>
       <c r="C4" s="3">
-        <v>210000000000</v>
+        <v>200000000000</v>
       </c>
       <c r="D4" s="3">
-        <v>2.0000000000000001E-4</v>
+        <v>5.2499999999999997E-6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3">
+        <v>200000000000</v>
+      </c>
+      <c r="D5" s="3">
+        <v>5.2499999999999997E-6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3">
+        <v>200000000000</v>
+      </c>
+      <c r="D6" s="3">
+        <v>5.2499999999999997E-6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3">
+        <v>200000000000</v>
+      </c>
+      <c r="D7" s="3">
+        <v>5.2499999999999997E-6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3">
+        <v>200000000000</v>
+      </c>
+      <c r="D8" s="3">
+        <v>5.2499999999999997E-6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3">
+        <v>200000000000</v>
+      </c>
+      <c r="D9" s="3">
+        <v>5.2499999999999997E-6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3">
+        <v>200000000000</v>
+      </c>
+      <c r="D10" s="3">
+        <v>5.2499999999999997E-6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3">
+        <v>200000000000</v>
+      </c>
+      <c r="D11" s="3">
+        <v>5.2499999999999997E-6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3">
+        <v>200000000000</v>
+      </c>
+      <c r="D12" s="3">
+        <v>5.2499999999999997E-6</v>
       </c>
     </row>
   </sheetData>
@@ -664,7 +805,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -691,58 +832,82 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="2">
-        <v>150</v>
+        <v>-1300</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="9">
         <f>COUNT(A2:A1048576)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
       </c>
       <c r="C3" s="2">
-        <v>-100</v>
+        <v>-1500</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="A4" s="2">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>-1300</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>-1500</v>
+      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="A6" s="2">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>-1300</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2">
+        <v>-1500</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
@@ -868,7 +1033,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -905,17 +1070,17 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
         <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2">
         <v>2</v>

--- a/entrada.xlsx
+++ b/entrada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alinsperedu-my.sharepoint.com/personal/matheusk_al_insper_edu_br/Documents/OneDrive/5o Sem/TCMecSol/mecsol_pfinal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="74" documentId="11_B83576887843B5F308FB41B3B0A882DC2AEE8E3C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9312D40F-9936-694C-8EA2-CD4A29FBACB9}"/>
+  <xr:revisionPtr revIDLastSave="96" documentId="11_B83576887843B5F308FB41B3B0A882DC2AEE8E3C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B103A51B-E0D1-F040-B315-65905FBDCC08}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="16460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nos" sheetId="1" r:id="rId1"/>
@@ -187,7 +187,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -509,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" zoomScale="187" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -604,8 +604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="144" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView zoomScale="144" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -656,7 +656,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" s="3">
         <v>200000000000</v>
@@ -670,10 +670,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C4" s="3">
         <v>200000000000</v>
@@ -684,10 +684,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C5" s="3">
         <v>200000000000</v>
@@ -698,7 +698,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
@@ -715,7 +715,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="3">
         <v>200000000000</v>
@@ -726,10 +726,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1">
         <v>5</v>
-      </c>
-      <c r="B8" s="1">
-        <v>4</v>
       </c>
       <c r="C8" s="3">
         <v>200000000000</v>
@@ -740,7 +740,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" s="1">
         <v>6</v>
@@ -754,10 +754,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C10" s="3">
         <v>200000000000</v>
@@ -768,10 +768,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1">
         <v>5</v>
-      </c>
-      <c r="B11" s="1">
-        <v>7</v>
       </c>
       <c r="C11" s="3">
         <v>200000000000</v>
@@ -782,10 +782,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1">
         <v>7</v>
-      </c>
-      <c r="B12" s="1">
-        <v>6</v>
       </c>
       <c r="C12" s="3">
         <v>200000000000</v>
